--- a/medicine/Sexualité et sexologie/Histoire_d'O,_numéro_2/Histoire_d'O,_numéro_2.xlsx
+++ b/medicine/Sexualité et sexologie/Histoire_d'O,_numéro_2/Histoire_d'O,_numéro_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_d%27O,_num%C3%A9ro_2</t>
+          <t>Histoire_d'O,_numéro_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire d’O, numéro 2 est un film franco-espagnol réalisé par Éric Rochat, sorti en 1984.
 Le scénario est la suite du film Histoire d'O, une adaptation du roman érotique éponyme publié en 1954 par Pauline Réage.
-Le film a fait l'objet d'une adaptation en bandes dessinées Histoire d'O N°2[1], scénario d'Eric Rochat, dessins de Guido Crepax.
+Le film a fait l'objet d'une adaptation en bandes dessinées Histoire d'O N°2, scénario d'Eric Rochat, dessins de Guido Crepax.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_d%27O,_num%C3%A9ro_2</t>
+          <t>Histoire_d'O,_numéro_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">O, initiée par Sir Stephen à toutes les subtilités de l'érotisme, est devenue dominatrice. 
 Un puissant groupe industriel engage O pour discréditer le dirigeant d'un empire financier américain concurrent, James Pembroke. À son arrivée dans un magnifique château en France, O a pour mission de le compromettre ainsi que toute sa famille : le père, sa femme, son fils et sa fille vont succomber aux talents pervers et séducteur de O qui ne rencontrera que peu de résistances.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_d%27O,_num%C3%A9ro_2</t>
+          <t>Histoire_d'O,_numéro_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Histoire d’O, numéro 2
 Autres titres : Histoire d'O chapitre 2, Retour à Roissy, Story of O Chapter 2
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_d%27O,_num%C3%A9ro_2</t>
+          <t>Histoire_d'O,_numéro_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sandra Wey : O
